--- a/biology/Histoire de la zoologie et de la botanique/Achille_Rémy_Percheron/Achille_Rémy_Percheron.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Achille_Rémy_Percheron/Achille_Rémy_Percheron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Achille_R%C3%A9my_Percheron</t>
+          <t>Achille_Rémy_Percheron</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Achille Rémy Percheron est un entomologiste français né le 25 janvier 1797 à Paris et mort à Paris 6e le 3 juin 1869[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Achille Rémy Percheron est un entomologiste français né le 25 janvier 1797 à Paris et mort à Paris 6e le 3 juin 1869.
 Il analyse dans sa Bibliographie entomologique plus de 5 000 auteurs et 500 anonymes.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Achille_R%C3%A9my_Percheron</t>
+          <t>Achille_Rémy_Percheron</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Avec Hippolyte Louis Gory (1800-1852), Monographie des cétoines et genres voisins (J.-B. Baillière, Paris, 1833) ;
 Avec Félix Édouard Guérin-Méneville (1799-1874), « Genera » des insectes, ou Exposition détaillée de tous les caractères propres à chacun des genres de cette classe d'animaux (Méquignon-Marvis père et fils, Paris, 1835) ;
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Achille_R%C3%A9my_Percheron</t>
+          <t>Achille_Rémy_Percheron</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jean Gouillard (2004). Histoire des entomologistes français, 1750-1950. Édition entièrement revue et augmentée. Boubée (Paris) : 287 p.</t>
         </is>
